--- a/ExcelConvertToolsXiongSetup/列转换配置.xlsx
+++ b/ExcelConvertToolsXiongSetup/列转换配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60BE7D5-9983-424B-A6EF-FAA2E19FC5E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D291CA3-02FF-48B1-963D-EE2A526A1FBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="4223" windowWidth="16065" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Client</t>
   </si>
@@ -143,159 +143,31 @@
     <t>blvposno</t>
   </si>
   <si>
-    <t>Trunk Lane</t>
-  </si>
-  <si>
     <t>Trunk Vessel</t>
   </si>
   <si>
-    <t>Trunk POL</t>
-  </si>
-  <si>
-    <t>Trunk POD</t>
-  </si>
-  <si>
     <t>Voyage</t>
   </si>
   <si>
-    <t>Trade Code</t>
-  </si>
-  <si>
-    <t>POR
-Country</t>
-  </si>
-  <si>
-    <t>POR Code</t>
-  </si>
-  <si>
-    <t>POL
-Country</t>
-  </si>
-  <si>
     <t>POL Code</t>
   </si>
   <si>
-    <t>POD
-Country</t>
-  </si>
-  <si>
     <t>POD Code</t>
   </si>
   <si>
-    <t>DEL
-Country</t>
-  </si>
-  <si>
     <t>DEL Code</t>
   </si>
   <si>
     <t>B/L No.</t>
   </si>
   <si>
-    <t>SO No.</t>
-  </si>
-  <si>
-    <t>COC/SOC</t>
-  </si>
-  <si>
     <t>Booking Office</t>
   </si>
   <si>
-    <t>Sales Office</t>
-  </si>
-  <si>
     <t>Shipper Name</t>
   </si>
   <si>
-    <t>Consignee Name</t>
-  </si>
-  <si>
-    <t>Rec. Term</t>
-  </si>
-  <si>
-    <t>Del. Term</t>
-  </si>
-  <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
-    <t>Charge Type</t>
-  </si>
-  <si>
-    <t>Tariff Item No.</t>
-  </si>
-  <si>
-    <t>Charge
-Currency</t>
-  </si>
-  <si>
-    <t>Pay Term</t>
-  </si>
-  <si>
-    <t>Incl. OFT.</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Rated As</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Charge Amount</t>
-  </si>
-  <si>
-    <t>Collect</t>
-  </si>
-  <si>
-    <t>Prepaid</t>
-  </si>
-  <si>
     <t>Collection Office</t>
-  </si>
-  <si>
-    <t>Bill To</t>
-  </si>
-  <si>
-    <t>Bill Type</t>
-  </si>
-  <si>
-    <t>Calc. Method</t>
-  </si>
-  <si>
-    <t>Contract No.</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Manifest</t>
-  </si>
-  <si>
-    <t>Charge
-External
-Remark</t>
-  </si>
-  <si>
-    <t>Charge
-External
-Remark Desc</t>
-  </si>
-  <si>
-    <t>Charge
-Internal
-Remark</t>
-  </si>
-  <si>
-    <t>Charge
-Internal
-Remark Desc</t>
-  </si>
-  <si>
-    <t>Bill Type
-Remark</t>
   </si>
   <si>
     <t>USD</t>
@@ -1008,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,8 +890,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1378,11 +1253,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
@@ -1506,148 +1388,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:47" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1660,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D9E6E-087E-4D50-BCEF-441E1A9B9455}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1672,168 +1476,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
